--- a/src/main/java/com/NPU/考试0531/第四题debug/bug记录.xlsx
+++ b/src/main/java/com/NPU/考试0531/第四题debug/bug记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10550"/>
+    <workbookView windowWidth="14400" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>bug</t>
   </si>
@@ -28,13 +28,3944 @@
     <t>解决方法</t>
   </si>
   <si>
-    <t>occupiedAddresses在使用之前没有被初始化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    private List&lt;Integer&gt; getOccupiedAddresses(String occupier) {
-        List&lt;Integer&gt; occupiedAddresses;
+    <t>缺少IP定义类</t>
+  </si>
+  <si>
+    <t>DHCPServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+public class IP {
+    /**
+     * IP address
+     */
+    public int IPaddress;
+    /**
+     * 拥有IP地址的主机
+     */
+    public String occupier = "";
+    /**
+     * 状态
+     */
+    public State status = State.NO;
+    /**
+     * 过期时刻
+     * 默认为0（不过期）
+     * 处于待分配和占用状态的 IP 地址拥有一个大于零的过期时刻
+     * 在到达该过期时刻时，
+     * 若该地址的状态是待分配，
+     * 则该地址的状态会自动变为未分配，且占用者清空，过期时刻清零；
+     * 否则
+     * 该地址的状态会由占用自动变为过期，且过期时刻清零。处于未分配和过期状态的 IP 地址过期时刻为零，即没有过期时刻。
+     */
+    public int expirationTime = 0;
+    public IP(int address) {
+        IPaddress = address;
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>缺少报文状态定义类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public enum State {
+    // 未分配，待分配，占用，过期
+    // 处于未分配状态的 IP 地址没有占用者，而其余三种状态的 IP 地址均有一名占用者。
+    NO, WAIT, USED, OUT
+}
+</t>
+  </si>
+  <si>
+    <t>变量定义错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>变量结构错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>occupiers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Map&lt;String, IP&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>occupiers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>变量未初始化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responseMessages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responseMessages = new ArrayList&lt;&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>变量初始化错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">occupiers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">occupiers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>变量多余</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expirations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>循环语句-循环控制变量初始化错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt; addressPoolSize; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFB4960A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= 0; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt; addressPoolSize; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFB4960A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>方法调用错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFB4960A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFB4960A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>方法调用-函数参数列表的类型不正确（IP应为String）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handleDiscover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">time, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sendHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recvHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IP, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>recvExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handleDiscover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">time, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sendHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recvHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IP, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>recvExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>返回值条件语句逻辑错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>receiver.equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>serverName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;&amp; receiver.equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>receiver.equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>serverName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) ||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> receiver.equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>方法调用函数错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= getUnassignedAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IP ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= getUnassignedAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>recvHost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>对象调用出错</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFB4960A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IPaddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>== -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFB4960A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>函数调用不满足需求</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>occupiers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, sendHost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">occupier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= sendHost;
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ipAddress.status = State.WAIT;
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map
+occupiers.put(sendHost, ipAddress);</t>
+    </r>
+  </si>
+  <si>
+    <t>赋值语句-逻辑错误</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recvExpiration == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? time + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">maxExpiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: time + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maxExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>minExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, recvExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= recvExpiration == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">defaultExpiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maxExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>minExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, recvExpiration - time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expirations.set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expirationTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ time;</t>
+    </r>
+  </si>
+  <si>
+    <t>方法调用-参数缺失“OFR”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responseMessages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">serverName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ sendHost + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responseMessages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">serverName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ sendHost + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" OFR " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IPaddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expirationTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handleRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">time, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sendHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recvHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IP, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>recvExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handleRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">time, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sendHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recvHost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IP, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>recvExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>条件语句-条件为真是的执行语句不正确</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!isServerReceiver(sendHost)) {
+            List&lt;Integer&gt; occupiedAddresses = getOccupiedAddresses(recvHost);
+            for (int address : occupiedAddresses) {
+                if (addressPool.contains(address)) {
+                    addressPool.set(address - 1, 0);
+                    occupiers.set(address - 1, "");
+                    expirations.set(address - 1, 1);
+                }
+            }
+            return;
+        }</t>
+  </si>
+  <si>
+    <t>144-154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!isServerReceiver(recvHost)) {
+            // 首先判断该客户端是否选择本服务器分配的地址：如果不是，则在本服务器上解除对那个 IP 地址的占用
+            removeOccupiedAddresses(sendHost);
+            return;
+        }</t>
+  </si>
+  <si>
+    <t>方法调用-参数错误“ERR”，应改为“NAK”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (isValidRequest(ipAddress, recvHost)) {
+            responseMessages.add(serverName +
+                    " " + recvHost + " ERR " + ipAddress);
+            return;
+        }</t>
+  </si>
+  <si>
+    <t>157-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!isValidRequest(IP, sendHost, time)) {
+            responseMessages.add(serverName + " " + recvHost + " NAK " + IP + " 0");
+            return;
+        }</t>
+  </si>
+  <si>
+    <t>缺少获取IP对象的方法调用</t>
+  </si>
+  <si>
+    <t>// 设置过期时间
+        // time是当前时刻
+        IP ip = addressPool.get(IP - 1);</t>
+  </si>
+  <si>
+    <t>条件语句-边界条件不正确，条件语句-条件为假时，执行语句不正确</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recvExpiration != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">time + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>defaultExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: time + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maxExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>minExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, recvExpiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expirationTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expiration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ time;
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ip.status = State.USED;</t>
+    </r>
+  </si>
+  <si>
+    <t>方法调用-参数错误“AC”，应改为“ACK”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responseMessages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">serverName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ recvHost + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" AC " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ipAddress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responseMessages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">serverName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ recvHost + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" ACK " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ IP + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF871094"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expirationTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>函数逻辑错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private int getUnassignedAddress(String occupier) {
         for (int i = 0; i &lt;= addressPoolSize; i++) {
-            if (occupiers.get(i)==occupier) {
+            if (occupiers.get(i).equals("") || occupiers.get(i).equals(occupier)) {
+                return addressPool.get(i + 1);
+            }
+        }
+        return 0;
+    }</t>
+  </si>
+  <si>
+    <t>174-182</t>
+  </si>
+  <si>
+    <t>/**
+     * 获取一个未被分配的IP地址，可以是空闲的或被请求方占用的
+     *
+     * @param occupier 占用者
+     * @return
+     */
+    private IP getUnassignedAddress(String occupier) {
+        IP address = new IP(-1);
+        // 1、若存在IP地址对应的占用是发送主机
+        // 则返回该IP地址
+        if (addressMapOccupier.containsKey(occupier)) {
+            // 首先检查此前是否给该客户端分配过 IP 地址，且该 IP 地址在此后没有被分配给其它客户端。如果是这样的情况，则直接将 IP 地址分配给它
+            address = addressMapOccupier.get(occupier);
+            if (address.status == State.NO || address.status == State.OUT) {
+                return address;
+            }
+        }
+        // 若IP地址对应的占用者不是
+        // 则选取最小状态为未分配的IP地址
+        address = findMinNonAllocate();
+        // 若没有未分配的IP地址，则选取最小的状态为过期的IP地址
+        if (address.IPaddress == - 1) {
+            address = findMinExpairation();
+            return address;
+        }
+        // 若没有 return -1
+        return address;
+    }
+    /**
+     * 选取最小状态为未分配的IP地址
+     * @return
+     */
+    private IP findMinExpairation() {
+        for (IP ip : addressPool) {
+            if (ip.status == State.OUT) {
+                // 数组中IP的顺序不变
+                return ip;
+            }
+        }
+        return new IP(-1);
+    }
+    /**
+     * 选取最小状态为未分配的IP地址
+     * @return
+     */
+    private IP findMinNonAllocate() {
+        for (IP ip : addressPool) {
+            if (ip.status == State.NO) {
+                // 数组中IP的顺序不变
+                return ip;
+            }
+        }
+        return new IP(-1);
+    }
+    /**
+     * 移除指定占用者的已占用IP
+     * @param occupier
+     * @return
+     */
+    private void removeOccupiedAddresses(String occupier) {
+        if (addressMapOccupier.containsKey(occupier)) {
+            IP ip = addressMapOccupier.get(occupier);
+            ip.status = State.NO;
+            ip.expirationTime = 0;
+            ip.occupier = "";
+            // 移除key
+            addressMapOccupier.remove(occupier);
+        }
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /**
+     * 鑾峰彇鎸囧畾鍗犵敤鑰呯殑宸插崰鐢↖P鍦板潃鍒楄〃
+     *
+     * @param occupier
+     * @return
+     */
+    private List&lt;Integer&gt; getOccupiedAddresses(String occupier) {
+        List&lt;Integer&gt; occupiedAddresses = new ArrayList&lt;&gt;();
+        for (int i = 0; i &lt;= addressPoolSize; i++) {
+            if (occupiers.get(i) == occupier) {
                 occupiedAddresses.add(addressPool.get(i));
             }
         }
@@ -42,68 +3973,59 @@
     }</t>
   </si>
   <si>
-    <t>getOccupiedAddresses函数</t>
-  </si>
-  <si>
-    <t>List&lt;Integer&gt; occupiedAddresses = new ArrayList&lt;&gt;();</t>
-  </si>
-  <si>
-    <t>在java中，判断字符串是否想等，不能使用==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    private boolean isInvalidReceiver(String receiver, String messageType) {
-        return (receiver=="*" &amp;&amp; messageType.equals("DIS")) ||
-                (receiver==serverName &amp;&amp; messageType.equals("DIS"));
-    }</t>
-  </si>
-  <si>
-    <t>isInvalidReceiver函数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return (receiver.equals("*") &amp;&amp; messageType.equals("DIS")) ||
-                (receiver.equals(serverName) &amp;&amp; messageType.equals("DIS"));</t>
-  </si>
-  <si>
-    <t>addressPool在使用之前没有被初始化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public DHCPServer(int addressPoolSize, int defaultExpiration, int maxExpiration, int minExpiration, String serverName) {
-        this.addressPoolSize = addressPoolSize;
-        this.defaultExpiration = defaultExpiration;
-        this.maxExpiration = minExpiration;
-        this.minExpiration = maxExpiration;
-        this.serverName = serverName;
-        // 鍒濆鍖朓P
-//        this.addressPool = new ArrayList&lt;&gt;(addressPoolSize);
-        this.occupiers = new ArrayList&lt;&gt;();
-        this.expirations = new ArrayList&lt;&gt;();
-        // 鍒濆鍖栧湴鍧�姹�
-        for (int i = 1; i &lt; addressPoolSize; i++) {
-            addressPool.add(i+1);
-            occupiers.add("");
-            expirations.add(1);
+    <t>184-198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /**
+     * 移除指定占用者的已占用IP
+     * @param occupier
+     * @return
+     */
+    private void removeOccupiedAddresses(String occupier) {
+        if (addressMapOccupier.containsKey(occupier)) {
+            IP ip = addressMapOccupier.get(occupier);
+            ip.status = State.NO;
+            ip.expirationTime = 0;
+            ip.occupier = "";
+            // 移除key
+            addressMapOccupier.remove(occupier);
         }
     }</t>
   </si>
   <si>
-    <t>DHCPServer构造函数</t>
-  </si>
-  <si>
-    <t>添加一行
-this.addressPool = new ArrayList&lt;&gt;(addressPoolSize);</t>
-  </si>
-  <si>
-    <t>逻辑错误</t>
-  </si>
-  <si>
-    <t>int expiration = (recvExpiration != 0) ? (time + defaultExpiration) : time + Math.min(maxExpiration, Math.max(minExpiration, recvExpiration));</t>
-  </si>
-  <si>
-    <t>handleRequest函数</t>
-  </si>
-  <si>
-    <t>改为
-int expiration = (recvExpiration == 0) ? (time + defaultExpiration) : time + Math.min(maxExpiration, Math.max(minExpiration, recvExpiration));</t>
+    <t>函数逻辑错误-函数逻辑未考虑IP地址的状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /**
+     * 妫�鏌ヨ姹傜殑IP鍦板潃鏄惁鏈夋晥锛屽嵆鏄惁瀛樺湪浜庡湴鍧�姹犱腑骞朵笖琚姹傛柟鍗犵敤
+     *
+     * @param ipAddress
+     * @param occupier
+     * @return
+     */
+    private boolean isValidRequest(int ipAddress, String occupier) {
+        return addressPool.contains(ipAddress) &amp;&amp; occupiers.get(ipAddress).equals(occupier);
+    }</t>
+  </si>
+  <si>
+    <t>200-209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /**
+     * 检查请求的IP地址是否有效，即是否存在于地址池中并且被请求方占用
+     * @param ipAddress
+     * @param occupier
+     * @return
+     */
+    private  boolean isValidRequest(int ipAddress, String occupier, int time) {
+        IP ip = addressPool.get(ipAddress - 1);
+        // IP处于使用状态，则占有者必须是occupier
+        if (ip.status == State.USED &amp;&amp; ip.occupier.equals(occupier)) {
+            return addressPool.get(ipAddress - 1).expirationTime &gt;= time;
+        }
+        // 当前IP处于非使用状态
+        return ip.status != State.USED;
+    }</t>
   </si>
 </sst>
 </file>
@@ -116,13 +4038,49 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF0033B3"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF0033B3"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF871094"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF080808"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -267,6 +4225,97 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF3F9101"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF3F9101"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF871094"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF080808"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF1750EB"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFB4960A"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFB4960A"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF0E4A8E"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF00627A"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF00627A"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF0E4A8E"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF067D17"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF067D17"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.3"/>
+      <color rgb="FF080808"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF080808"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -577,10 +4626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,141 +4638,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,18 +5115,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="63.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="88.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="28.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="53.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="108.763636363636" customWidth="1"/>
+    <col min="3" max="3" width="28.6363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="155.827272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1066,71 +5136,396 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="126" spans="1:4">
+    <row r="2" ht="409.5" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" ht="84" spans="1:4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" ht="56" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="280" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="6" ht="15" spans="1:4">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" ht="56" spans="1:4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" ht="15" spans="1:4">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>111</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>119</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="75" spans="1:4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>128</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>131</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:4">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:4">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>143</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="154" spans="1:4">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="70" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" ht="42" spans="1:4">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1">
+        <v>161</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:4">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="45" spans="1:4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1">
+        <v>163</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:4">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1">
+        <v>165</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" ht="409.5" spans="1:4">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="210" spans="1:4">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" ht="210" spans="1:4">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>